--- a/mes-prm-core/表结构设计/临时任务/临时巡检任务_郭俊.xlsx
+++ b/mes-prm-core/表结构设计/临时任务/临时巡检任务_郭俊.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F9440D8D-0AF3-4B25-B67B-10060DD343F8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="14415" windowHeight="5115"/>
+    <workbookView xWindow="0" yWindow="2772" windowWidth="14412" windowHeight="5112" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="临时巡检主表" sheetId="4" r:id="rId1"/>
     <sheet name="临时巡检任务子表" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:H19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="108">
   <si>
     <t>数据库表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,14 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CEQUIP_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备位置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>判断标准</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -381,14 +373,68 @@
   </si>
   <si>
     <t>VQCVALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡检任务号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBILLCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRDESCRIBE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2 (300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VROWNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISQUALIFIED</t>
+  </si>
+  <si>
+    <t>巡检结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=不合格，1=合格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDBVALUE</t>
+  </si>
+  <si>
+    <t>varchar2 (300)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,7 +609,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -605,7 +651,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,9 +683,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,6 +735,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -846,35 +928,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -883,7 +965,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -903,7 +985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -921,26 +1003,26 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>62</v>
@@ -949,68 +1031,68 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>62</v>
@@ -1019,26 +1101,26 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>63</v>
@@ -1047,54 +1129,54 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>11</v>
@@ -1103,121 +1185,135 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1231,35 +1327,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1268,7 +1364,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
@@ -1288,7 +1384,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -1306,54 +1402,54 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>62</v>
@@ -1362,48 +1458,56 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
-      <c r="A12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>11</v>
@@ -1412,135 +1516,163 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
